--- a/Project 2 - Manual Representation.xlsx
+++ b/Project 2 - Manual Representation.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonz\eclipse-workspace\Project 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E8792C-4398-40D4-A962-792A58545E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -19,9 +28,6 @@
     <t>Task 1</t>
   </si>
   <si>
-    <t>Task 2</t>
-  </si>
-  <si>
     <t>Next Character in Infix Expression</t>
   </si>
   <si>
@@ -101,30 +107,36 @@
   </si>
   <si>
     <t>ab*ca-/de*+</t>
+  </si>
+  <si>
+    <t>Task 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -134,7 +146,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -150,7 +162,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -164,6 +182,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -172,6 +191,9 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -180,9 +202,11 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -194,85 +218,78 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -462,90 +479,95 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1">
+    <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
+    <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8"/>
       <c r="F6" s="9"/>
@@ -560,236 +582,236 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="11">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="11">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J8" s="11">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N8" s="11">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O8" s="11">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="P8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12">
+        <v>6</v>
+      </c>
+      <c r="J9" s="12">
+        <v>6</v>
+      </c>
+      <c r="K9" s="12">
+        <v>6</v>
+      </c>
+      <c r="L9" s="12">
+        <v>3</v>
+      </c>
+      <c r="M9" s="12">
+        <v>3</v>
+      </c>
+      <c r="N9" s="12">
+        <v>3</v>
+      </c>
+      <c r="O9" s="12">
+        <v>3</v>
+      </c>
+      <c r="P9" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="P9" s="12">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
       <c r="C20" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>